--- a/yield_prediction/results/graph_descriptors/WLlinear_6/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_6/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.55</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.403</v>
+        <v>16.364</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.755</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.053</v>
+        <v>13.382</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.964</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.138</v>
+        <v>4.705</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.665189055013499</v>
+        <v>8.65437371224931</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.42103724564138</v>
+        <v>11.36351068396256</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17.52310658233645</v>
+        <v>17.60383153708035</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.6268504072511085</v>
+        <v>-0.08213347227720291</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.56871766330701</v>
+        <v>11.87807909048224</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14.93746643464717</v>
+        <v>15.75007221155829</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.576516763145293</v>
+        <v>3.987232469556435</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.25838099319763</v>
+        <v>22.04749312735271</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>24.19160500954219</v>
+        <v>24.65852077820192</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16.62181471302929</v>
+        <v>18.0490409966484</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20.59175787899263</v>
+        <v>22.12063305699422</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>26.43926321934225</v>
+        <v>27.14711401826294</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.65698924500408</v>
+        <v>6.649551316109136</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9.628232102074222</v>
+        <v>10.98110451619685</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>18.51892091532611</v>
+        <v>19.64186211678643</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.61733922664599</v>
+        <v>11.83759375341509</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.55943112039227</v>
+        <v>27.65779754425103</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.53956623390979</v>
+        <v>36.01276588567147</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.2102120856757</v>
+        <v>2.175574668203865</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12.99295752699525</v>
+        <v>14.62594345470851</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24.3482255617079</v>
+        <v>26.15971532575248</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.8867793810604176</v>
+        <v>1.726243768356166</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.56425804272168</v>
+        <v>29.92884696906621</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>42.8296022047325</v>
+        <v>44.21009415295985</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.08944632121459</v>
+        <v>31.84911225330431</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>45.20596874182793</v>
+        <v>47.00027984797963</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>61.00363467343016</v>
+        <v>61.99628850962532</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3.195293435952074</v>
+        <v>5.016989673808652</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.92554520128562</v>
+        <v>35.83022678359934</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>46.35906275773176</v>
+        <v>49.00420990667115</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>13.16195333977645</v>
+        <v>13.91390959658542</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>30.09418797114612</v>
+        <v>31.4245171262157</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>39.06831710377872</v>
+        <v>40.04541534394098</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.5754695989930845</v>
+        <v>1.743042673206148</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>16.16840886224239</v>
+        <v>17.62324219625335</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>27.70268791269615</v>
+        <v>29.67255540012923</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2.921368324011294</v>
+        <v>3.909511497893448</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36.99744042732377</v>
+        <v>39.33615509492117</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>47.43092856496854</v>
+        <v>47.79780088123438</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>43.58164383432085</v>
+        <v>45.65966856498031</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>55.17107441858302</v>
+        <v>57.15864910844437</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>66.56985029963877</v>
+        <v>68.57739739745001</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>8.645852809676228</v>
+        <v>10.90827118210484</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>43.10718144442503</v>
+        <v>46.12732841146158</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>52.6478279778366</v>
+        <v>54.27233875576074</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.094324906053146</v>
+        <v>3.677622418555739</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.36796146028727</v>
+        <v>31.3128960852245</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>37.53727301201157</v>
+        <v>36.60012835484616</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.60373278899154</v>
+        <v>6.604327631713602</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34.82211357888825</v>
+        <v>35.26449354293943</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>39.25363328728645</v>
+        <v>39.23008564109276</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7.096961377516092</v>
+        <v>7.998221532815244</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>58.60672471764823</v>
+        <v>58.56347154205085</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>64.54840690610979</v>
+        <v>63.8374912020155</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>52.59446883086105</v>
+        <v>53.02675960600263</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>55.01149689449092</v>
+        <v>56.94376196673545</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>56.22550282098133</v>
+        <v>55.92085123740568</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5.914976477492178</v>
+        <v>6.27396362644463</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>39.61017976637289</v>
+        <v>40.27665552014503</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>50.72882021763861</v>
+        <v>50.98641561500723</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4.621422448645848</v>
+        <v>5.840138914860482</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.68069667783622</v>
+        <v>33.06603333015089</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>37.02902534717715</v>
+        <v>38.06640656045779</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.5118240648998373</v>
+        <v>3.342965251659404</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>20.19925713395468</v>
+        <v>21.47969425917783</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.68744782871853</v>
+        <v>30.97940697641555</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.7720131586796732</v>
+        <v>2.159455672972893</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>40.75568406358386</v>
+        <v>41.46762783019427</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>52.65051733524756</v>
+        <v>52.63684943747079</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>43.09140091944262</v>
+        <v>44.15796135631108</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>55.20374872179927</v>
+        <v>55.90657006391523</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>62.5031802615573</v>
+        <v>63.07631282882701</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.003037441865142654</v>
+        <v>1.703247326684131</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>44.9619305936795</v>
+        <v>46.68974360002463</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>52.40739725350228</v>
+        <v>53.74767015265856</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5.210501208789935</v>
+        <v>6.303751461588291</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.01821149615802</v>
+        <v>35.9917839009479</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>43.08791450949794</v>
+        <v>43.40099327482801</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-0.1234822095018799</v>
+        <v>2.802130239760178</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>27.98958895790335</v>
+        <v>29.59367222461113</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>36.27922724400604</v>
+        <v>37.50854882017089</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3.145841285984162</v>
+        <v>4.588004528845303</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>52.73776520504269</v>
+        <v>54.67009222214481</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>70.91222550609149</v>
+        <v>71.21370719772764</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>55.84827394631223</v>
+        <v>57.53641132021043</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>69.17589592870145</v>
+        <v>70.20121804400257</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>77.76810622491352</v>
+        <v>78.1138311838958</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.6099504549589696</v>
+        <v>2.211773419835797</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>55.21634010653559</v>
+        <v>57.16025943557636</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>63.74604801364622</v>
+        <v>64.79784341391425</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>16.42610062830491</v>
+        <v>18.13281958563841</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.42379383122366</v>
+        <v>27.96489401234454</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.74516396596802</v>
+        <v>35.01693431382983</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.395375815579591</v>
+        <v>2.592965155487203</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.39610319720765</v>
+        <v>29.51412166126391</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>31.0008245172981</v>
+        <v>31.90154013404105</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.282745410381256</v>
+        <v>6.727282036806493</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>52.93509074845223</v>
+        <v>53.48747024760662</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>54.31428410287242</v>
+        <v>54.22138071450672</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>39.58909251191443</v>
+        <v>40.62335778761184</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>48.8391122179287</v>
+        <v>50.1184156790891</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>47.31087397478687</v>
+        <v>47.75738087395554</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>15.78438001105514</v>
+        <v>13.86580271973764</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>32.16738338638473</v>
+        <v>33.88395324219375</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.28956267883972</v>
+        <v>38.4177838240417</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>17.30102375408989</v>
+        <v>19.02217745307965</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36.86470242729737</v>
+        <v>37.74977659061638</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>40.31487637712819</v>
+        <v>40.59799074984682</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3.362971378192533</v>
+        <v>4.462466814852725</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>25.52439264242464</v>
+        <v>27.0544456024933</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.97067370109323</v>
+        <v>32.7279783012726</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4.181012336090927</v>
+        <v>5.141866199442568</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>46.32393223073413</v>
+        <v>47.54945466427348</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>55.69957353520959</v>
+        <v>56.62142925400879</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>47.22492114419369</v>
+        <v>48.51000008717469</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>58.94542587995139</v>
+        <v>60.106755956635</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>62.72541082547824</v>
+        <v>63.06645931873673</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>18.55482713102295</v>
+        <v>18.4689341498726</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>45.59748822087347</v>
+        <v>47.16921139726665</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>51.37947245825836</v>
+        <v>52.67234719292532</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.44332980570699</v>
+        <v>23.12592178976479</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.2231796851748</v>
+        <v>38.95955121159222</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>45.71287286216791</v>
+        <v>45.60101165029342</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1.896821739714039</v>
+        <v>3.189502532978231</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.64509164292187</v>
+        <v>31.41568666706315</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>34.94795366699323</v>
+        <v>36.70352537458901</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4.495977864976233</v>
+        <v>5.42559844733454</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>52.63508229519896</v>
+        <v>54.3975773221785</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>68.33523309535646</v>
+        <v>69.35183837304736</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>57.55010426682452</v>
+        <v>58.68014221533373</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>69.98821879314363</v>
+        <v>70.9210519965863</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>76.60670358748726</v>
+        <v>76.87176885471155</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>19.24813200149695</v>
+        <v>20.10519331762338</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>54.1951866569207</v>
+        <v>55.93525668385789</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>62.11739983713841</v>
+        <v>63.22266263963091</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9.26145728701394</v>
+        <v>10.74803355965656</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>11.81044408309794</v>
+        <v>12.75596012792194</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>18.8867928165586</v>
+        <v>19.39375863079584</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.5742782563231579</v>
+        <v>1.739870623086659</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10.8790390517389</v>
+        <v>11.7300936231594</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>12.54709426971281</v>
+        <v>14.49561613816421</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.374535591119063</v>
+        <v>5.686830806060446</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>21.66156295619535</v>
+        <v>22.39379261973483</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>24.77828280918368</v>
+        <v>25.40374251050083</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>19.33976697085712</v>
+        <v>19.28450791747315</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>21.83444491405967</v>
+        <v>22.25594537037064</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>27.7041456171579</v>
+        <v>28.28205531373968</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>48.2024217710441</v>
+        <v>49.44121466586044</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>46.19288556783077</v>
+        <v>52.66511249343288</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>53.80192570100819</v>
+        <v>56.81452530406546</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>8.460812761129887</v>
+        <v>9.25536088069514</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.39518786350443</v>
+        <v>26.87884399733611</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>35.73506372841496</v>
+        <v>36.82389881706584</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-2.635106597044349</v>
+        <v>-2.009517605557537</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>11.20838214218475</v>
+        <v>11.94782159214025</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>20.92838794605342</v>
+        <v>23.02289868130394</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1.506121047192632</v>
+        <v>2.947992136557179</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>24.26567371464423</v>
+        <v>26.49648951689545</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>40.46364888701707</v>
+        <v>41.4402997093337</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>21.39259457873439</v>
+        <v>24.54032004611035</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>41.25061406470653</v>
+        <v>42.84606573603491</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>51.82218043216911</v>
+        <v>55.61731321765311</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>3.272749907525824</v>
+        <v>5.266897137174048</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>32.58195273123199</v>
+        <v>33.01008897068047</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>41.2670081792863</v>
+        <v>42.24818542214236</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>15.43559771746874</v>
+        <v>17.54767997330956</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.56249947978333</v>
+        <v>30.25446354531275</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>37.91780835580523</v>
+        <v>38.97772670292256</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-1.733637313044699</v>
+        <v>-0.533487673956401</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>14.13087750200942</v>
+        <v>15.06307594548952</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>21.49510591948492</v>
+        <v>23.73031654308037</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4.875958252154003</v>
+        <v>6.656659527509628</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>32.94428698135142</v>
+        <v>35.78288583125494</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>48.07243531078122</v>
+        <v>50.80114060551941</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>35.22570971503387</v>
+        <v>37.36678753278337</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>47.75440442638283</v>
+        <v>48.92917949191507</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>59.45650627550589</v>
+        <v>61.90177479811925</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>13.58102572259373</v>
+        <v>15.95762520859812</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42.39719545246746</v>
+        <v>45.34490598588295</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>52.88760200142791</v>
+        <v>54.53512952847029</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>9.295643912802166</v>
+        <v>10.75910566508647</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>23.10731178791792</v>
+        <v>23.30967678674138</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.65115340710667</v>
+        <v>28.834650865194</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2.659647118414206</v>
+        <v>3.685113831092611</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.58736927608569</v>
+        <v>29.22302123874881</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.98317374302615</v>
+        <v>32.54345927105805</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>8.351574277422873</v>
+        <v>8.981248036503541</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>54.33474015612086</v>
+        <v>55.75155716663357</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>55.34452370634244</v>
+        <v>55.59007367297909</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.12613635793107</v>
+        <v>38.95187530612144</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>42.142162123124</v>
+        <v>43.43078782650071</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>44.84049279040428</v>
+        <v>45.58425475407863</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>14.48905994233905</v>
+        <v>12.82940710872773</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.10067550911955</v>
+        <v>17.77228175871642</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>21.95665315447329</v>
+        <v>18.90024468378801</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.35839705489045</v>
+        <v>23.79778812849296</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>40.23762451663187</v>
+        <v>40.3306932366961</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>41.90281225429133</v>
+        <v>42.69179340074443</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>5.066418169557217</v>
+        <v>5.848103214305191</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.05926623085583</v>
+        <v>28.95760220815036</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>34.72160918472912</v>
+        <v>35.91466953495286</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>7.437427642819824</v>
+        <v>7.246566163577334</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>50.29888841166051</v>
+        <v>51.20224950167881</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>56.71189232452708</v>
+        <v>57.77675488243599</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>49.91907836378671</v>
+        <v>52.57703979960918</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>62.90086295259478</v>
+        <v>63.75835775978709</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>67.82175630855711</v>
+        <v>68.02592727586604</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>27.85083720966498</v>
+        <v>28.88303029466321</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>48.84874758423663</v>
+        <v>50.55118530491968</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>54.95340315956735</v>
+        <v>56.73262739911927</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>24.67908534888767</v>
+        <v>24.93184974123428</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>39.48993191028318</v>
+        <v>40.2724123967302</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>43.55184112356923</v>
+        <v>44.07842298748942</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>3.523280089513513</v>
+        <v>4.413528475014456</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>25.50475246616107</v>
+        <v>26.99060312475059</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>32.68251374983171</v>
+        <v>34.47585778188085</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>7.848960073753762</v>
+        <v>8.442299097883893</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>50.61069541394692</v>
+        <v>52.07644210148704</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>63.04226813214316</v>
+        <v>64.6273105419542</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>55.86301246906537</v>
+        <v>57.35578496720916</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>65.6420518453325</v>
+        <v>66.91823038797588</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>72.19646769417001</v>
+        <v>73.18801343738374</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>27.07884324997688</v>
+        <v>28.30450544273288</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>53.75997821075425</v>
+        <v>56.42928855009686</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>64.34980382374128</v>
+        <v>64.97377204987136</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>6.967662532049776</v>
+        <v>8.819842526900171</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>21.67736514154614</v>
+        <v>22.01733314839193</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.47524668933481</v>
+        <v>30.2143498240474</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>4.796185668814658</v>
+        <v>5.660646572612553</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>31.55303368276742</v>
+        <v>31.84188068467991</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>35.28688791459764</v>
+        <v>35.75999192324836</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>9.491516815571178</v>
+        <v>10.49017851895259</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>60.28175249767683</v>
+        <v>60.71311700187745</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>60.55247266997958</v>
+        <v>60.25742462044367</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>37.52972049000684</v>
+        <v>40.61364424661946</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>40.94271967398534</v>
+        <v>43.77892859755613</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>42.86883013446955</v>
+        <v>44.69354726141567</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>8.322570216618111</v>
+        <v>8.974214885161182</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>10.87897752343206</v>
+        <v>8.482238393639236</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>11.98977780839295</v>
+        <v>10.15568040929207</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>17.87239143840922</v>
+        <v>18.65171606354967</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>42.9652514970626</v>
+        <v>42.47053016711882</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>44.07838912162673</v>
+        <v>43.77914759973994</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>5.24513717013993</v>
+        <v>6.167269310169527</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>33.50941898649676</v>
+        <v>34.47122514569632</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>38.13052245467197</v>
+        <v>38.91351051013245</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>5.993735438322069</v>
+        <v>6.502517991771864</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>58.5136755352695</v>
+        <v>58.86408138648605</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>60.44220409607156</v>
+        <v>60.21629903204766</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>51.10444416879361</v>
+        <v>52.0296745545611</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>62.71529372706058</v>
+        <v>63.02271919060661</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>68.19298301614573</v>
+        <v>68.30262582686449</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>16.68816057864938</v>
+        <v>17.81487901999021</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>56.92063488460995</v>
+        <v>58.27924256024343</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>61.26491161838712</v>
+        <v>62.50873933288344</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>19.82272708269403</v>
+        <v>20.7011452638557</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>42.56888502916104</v>
+        <v>43.38549163718435</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>46.82002977956455</v>
+        <v>46.72846564915915</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>3.734773044769685</v>
+        <v>5.21099571602587</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>31.19309291089402</v>
+        <v>32.49622863707443</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.03576353732397</v>
+        <v>36.2278894360345</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>8.161247460318528</v>
+        <v>9.012166240893386</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>58.57433898575351</v>
+        <v>59.56130700021056</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>68.39383359980035</v>
+        <v>68.51623315308483</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>57.73591190836549</v>
+        <v>58.95718716174932</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>72.34897121333829</v>
+        <v>73.18780056699096</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>77.72003362222176</v>
+        <v>78.70409124500144</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>14.31209702014006</v>
+        <v>15.77692208807304</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>59.7683220315167</v>
+        <v>61.3053176240777</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>65.77420821841783</v>
+        <v>67.01504413790873</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>5.201179888108786</v>
+        <v>5.735364815982074</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>5.998347163752673</v>
+        <v>7.137869626979015</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>12.10467707706176</v>
+        <v>12.1405768968496</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.05930376424132433</v>
+        <v>0.1561991568127006</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>9.781328264145568</v>
+        <v>11.27229112977582</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>11.87251799129596</v>
+        <v>12.83582995203781</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>3.036305341066022</v>
+        <v>2.953880376514967</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.13086714381061</v>
+        <v>19.71702116374665</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>21.35538127713397</v>
+        <v>21.68463600872844</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>18.75110433545349</v>
+        <v>20.20135399748411</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.39270379025723</v>
+        <v>25.77619445669119</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>24.74181898405623</v>
+        <v>25.78659222015654</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>6.645162351550034</v>
+        <v>5.622544955156037</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>6.617185252855865</v>
+        <v>8.201277576478304</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>10.37063014958793</v>
+        <v>12.1926996895588</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>9.142709646937575</v>
+        <v>10.33577740031186</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.10155191293642</v>
+        <v>25.26899525136686</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>31.03477082762968</v>
+        <v>31.15290513632129</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>3.806468985033039</v>
+        <v>5.045953506066116</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>16.23040133248704</v>
+        <v>17.7982580030825</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.12457654127784</v>
+        <v>26.08864574358709</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>4.455894797967282</v>
+        <v>5.535332241168877</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.73866297483866</v>
+        <v>29.56430694012809</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>41.13835167826434</v>
+        <v>42.24143165197889</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31.57414536416974</v>
+        <v>32.71543752884197</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>42.5478993680581</v>
+        <v>43.37293879435327</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>50.19765524863755</v>
+        <v>49.7635635150602</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>7.56521226765901</v>
+        <v>8.062822619914662</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>31.77655099225749</v>
+        <v>33.34123016841459</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>39.70940129281703</v>
+        <v>41.09753080020946</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>9.123244204944204</v>
+        <v>9.659420324393182</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.94867986776189</v>
+        <v>27.67294147355794</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.16863262066418</v>
+        <v>35.993944242598</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>1.474490374929903</v>
+        <v>2.628035022114066</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>20.50709071951773</v>
+        <v>22.91989697261216</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.1500232314054</v>
+        <v>30.58981546802252</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>5.471290919993045</v>
+        <v>6.597643138344203</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>37.84316301543288</v>
+        <v>39.56386004505194</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>51.31958469395197</v>
+        <v>51.92481928860703</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>46.71110218063433</v>
+        <v>48.66867921039157</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>59.53609462065204</v>
+        <v>60.85275903435408</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>65.06140883460202</v>
+        <v>65.90867784123655</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>13.72042222354806</v>
+        <v>13.77784871017901</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>44.78502758086069</v>
+        <v>47.07044239983401</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>55.54871855916336</v>
+        <v>57.58913606020975</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>2.807959530522322</v>
+        <v>3.777888669352102</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>5.701296014897594</v>
+        <v>6.601770942509759</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>10.95685548678067</v>
+        <v>11.77683289742609</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-0.007063456357141007</v>
+        <v>0.5251093205956998</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>9.600183301529484</v>
+        <v>10.36053515825609</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>11.28788735832442</v>
+        <v>12.48950975469367</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>3.828461560760275</v>
+        <v>4.605211169029459</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.46915861243916</v>
+        <v>16.91390414967788</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>14.89601500150416</v>
+        <v>15.05491704906997</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>10.80964813744015</v>
+        <v>12.24888611447119</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>13.89779486063988</v>
+        <v>14.00050027780726</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>16.88894392192272</v>
+        <v>17.29490821187623</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>7.03460573970408</v>
+        <v>6.982384883879202</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>7.479857795796438</v>
+        <v>9.470146789336383</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>11.03547868568568</v>
+        <v>13.10916214705143</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>2.010205431072098</v>
+        <v>3.004160382807225</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>8.084855609599373</v>
+        <v>9.537176225982098</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>17.0052998527888</v>
+        <v>17.93332842361229</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>1.587872686547239</v>
+        <v>1.807194372865499</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>3.425116709358402</v>
+        <v>4.568484686499971</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>12.85600759169203</v>
+        <v>14.28679846462459</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>1.367269817663018</v>
+        <v>3.125337465119127</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>7.758442239926755</v>
+        <v>8.503803877363733</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>22.90439294368068</v>
+        <v>24.7032188589516</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>3.908257142466148</v>
+        <v>5.290419536310409</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.33993226077431</v>
+        <v>24.32802077524461</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>40.65596987322751</v>
+        <v>40.8116911119503</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-0.5649041094031553</v>
+        <v>-0.2666307704312487</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>8.49504375135491</v>
+        <v>10.13597253097733</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>10.6933456253088</v>
+        <v>12.0288897989412</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-0.3939142551356589</v>
+        <v>0.4733059946346714</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>7.893988588782491</v>
+        <v>9.752558008689025</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>22.85781136737359</v>
+        <v>23.48832090135154</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1.355182442528069</v>
+        <v>-0.7865523363783993</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>4.660275942994438</v>
+        <v>6.351094580131587</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>17.46800874379901</v>
+        <v>18.90882798737519</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.5221639431529681</v>
+        <v>1.257871675313133</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>11.07460775619946</v>
+        <v>10.89835415230812</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>38.90830048979695</v>
+        <v>42.1490723883258</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>13.56993992088445</v>
+        <v>15.02584571906868</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>41.98709495141824</v>
+        <v>44.92159249656237</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>56.56160139136208</v>
+        <v>57.94894703646595</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-4.060730104718271</v>
+        <v>-2.495776777204675</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>14.39151046135873</v>
+        <v>15.3725683428962</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>22.00289500301019</v>
+        <v>21.71757840143722</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>9.727680505331993</v>
+        <v>10.76543208202165</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>17.62657504043495</v>
+        <v>16.30380782160112</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>33.9555940792268</v>
+        <v>33.61546301323308</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>5.580617019823869</v>
+        <v>6.157266321794658</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>38.71999520652304</v>
+        <v>39.45741632779986</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>42.26966761358924</v>
+        <v>42.04931145340462</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.930242493172415</v>
+        <v>8.313616239055442</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>58.3579157947362</v>
+        <v>58.5807531007659</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>64.42060546931457</v>
+        <v>62.62386942886216</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>43.77897624826107</v>
+        <v>45.12165902188576</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>48.09829010128115</v>
+        <v>49.47111971046067</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>53.1429017045991</v>
+        <v>53.11997968354665</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>35.18011040400096</v>
+        <v>34.91753838445058</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>38.79449902155983</v>
+        <v>40.47503317594548</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>62.80138345984011</v>
+        <v>63.84737542534198</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>10.10668377318246</v>
+        <v>10.01999162412684</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.65242253478192</v>
+        <v>29.96282414938903</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.44123047854558</v>
+        <v>33.69224378994683</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>1.02561251050394</v>
+        <v>2.576596718112341</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>24.36945401877335</v>
+        <v>25.54876960562852</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>26.94510723153035</v>
+        <v>28.76461071861045</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>1.939367305596729</v>
+        <v>3.290693838305202</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>40.69488274660824</v>
+        <v>41.42783170440928</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>47.52236891582577</v>
+        <v>48.26288873713354</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>38.26846885282117</v>
+        <v>39.32791120226952</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>46.75417599422384</v>
+        <v>47.95356818185383</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>53.5815943413421</v>
+        <v>54.21962670878225</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>19.29820822700931</v>
+        <v>19.71745921131338</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>41.89306521128906</v>
+        <v>43.38074682767457</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>47.18802776229576</v>
+        <v>48.84174627701181</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>13.43765288558619</v>
+        <v>13.96119085015973</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.09523720610863</v>
+        <v>30.41760469011474</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>39.67390312077694</v>
+        <v>40.73580340048967</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>3.547819181395383</v>
+        <v>4.486900010144073</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>30.71334676727021</v>
+        <v>32.05066289801541</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>35.16847705357351</v>
+        <v>36.63462684746439</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>6.413349720663845</v>
+        <v>7.672890715030157</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>50.52348404323548</v>
+        <v>51.44581197842189</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>67.17522047981298</v>
+        <v>67.57581443808762</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>52.04888158397138</v>
+        <v>53.40758313069851</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>61.27365436292092</v>
+        <v>62.60533545146941</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>70.37463765654599</v>
+        <v>70.63505854499348</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>20.39213844147855</v>
+        <v>21.96212798318368</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>51.46463913686696</v>
+        <v>53.36086947418572</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>65.07501334698665</v>
+        <v>66.10836657241985</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>6.340681446165298</v>
+        <v>7.163027813052995</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>7.399575999243346</v>
+        <v>8.034627760958731</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>13.78525768530005</v>
+        <v>14.37849516298471</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-1.305603115569401</v>
+        <v>-0.7918742861855037</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>3.010915912780689</v>
+        <v>5.400895144194656</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>6.802203636822707</v>
+        <v>9.062899332442925</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>2.61604406189873</v>
+        <v>3.212211923173573</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>13.56237514691717</v>
+        <v>14.69055334049764</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>17.20772190403437</v>
+        <v>17.96652826406672</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>12.27774405179055</v>
+        <v>13.43992435456175</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>14.35757509883455</v>
+        <v>15.79255422895434</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>17.13792440017437</v>
+        <v>18.33603510615394</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>5.181771099836762</v>
+        <v>5.840535734479843</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>2.767198705108857</v>
+        <v>4.324912024301302</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>7.88244105463739</v>
+        <v>9.424615597099095</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>1.710920544988468</v>
+        <v>3.321939622296203</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>13.64148865543515</v>
+        <v>14.94852092657556</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>24.20720661251337</v>
+        <v>24.93615251814489</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-1.520350147509902</v>
+        <v>0.06781024357525567</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>4.428449896361059</v>
+        <v>6.674597032706448</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>17.39301665910896</v>
+        <v>19.37165176517406</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-1.466890197886336</v>
+        <v>-0.04264594526415877</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>13.93555925343152</v>
+        <v>15.21565886774534</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.69210519252469</v>
+        <v>31.59651960686553</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>11.34154590600147</v>
+        <v>13.2523260135724</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>22.75095892989916</v>
+        <v>24.62438072820746</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>33.44486877281624</v>
+        <v>35.12131951539992</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-1.919038120648459</v>
+        <v>0.318981372036621</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>16.1031322758528</v>
+        <v>18.35238088846355</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.16937828415158</v>
+        <v>26.89813288795859</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>6.607581892560994</v>
+        <v>8.27624039206194</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>17.9765410044881</v>
+        <v>19.52643523473784</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>31.18964947297572</v>
+        <v>32.28529598793335</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-0.4748611974857475</v>
+        <v>1.050581153974353</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>8.865663995692113</v>
+        <v>11.16142640367514</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>20.73520347753553</v>
+        <v>22.31233645528876</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>3.756766925922886</v>
+        <v>5.121987888734026</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>21.02349064759447</v>
+        <v>21.92533650770964</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>39.70716924267379</v>
+        <v>40.46763023719657</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>24.00961828321147</v>
+        <v>24.94444000136805</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>36.47892571379005</v>
+        <v>37.43408790876924</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>51.24242852021634</v>
+        <v>52.69044454035906</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>10.01824789402231</v>
+        <v>12.85265496127203</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.03110604140821</v>
+        <v>29.31320997042162</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>37.92918777325308</v>
+        <v>39.87620490451778</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>0.05046149867960281</v>
+        <v>0.007406020439894689</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>0.1709241819040273</v>
+        <v>0.274866186263278</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>6.896510323450979</v>
+        <v>7.342057330890331</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-2.51646156849765</v>
+        <v>-1.722829281259386</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>1.505924324243388</v>
+        <v>2.54613228581076</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>3.794737687947954</v>
+        <v>4.768596954157086</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-1.295974712270397</v>
+        <v>2.994941843732114</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>11.07258779518927</v>
+        <v>11.3646185663569</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>11.52082263094496</v>
+        <v>11.71789987616989</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>6.638035242411053</v>
+        <v>7.211239326052251</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>7.246639446392663</v>
+        <v>7.601028460477526</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>9.845631204054733</v>
+        <v>10.98932592189691</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-0.6258282286889383</v>
+        <v>0.5365080803634186</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-0.5170945748844993</v>
+        <v>-0.06112016225350203</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-0.05031128813615737</v>
+        <v>0.9910741555077749</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>15.57426679616258</v>
+        <v>16.44959734228143</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.84537421871605</v>
+        <v>32.01007248544951</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>36.25018663632265</v>
+        <v>36.77908590375777</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>5.603442733880541</v>
+        <v>6.388737651775372</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>21.96571910233398</v>
+        <v>22.81832158049533</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>27.77755117448404</v>
+        <v>28.94587889388115</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>8.478561179223266</v>
+        <v>9.669984932347148</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>42.74801092998442</v>
+        <v>43.30421134956764</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>49.35133308957732</v>
+        <v>50.21194393825083</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>39.78454298140635</v>
+        <v>40.73053116470652</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>48.72373627654714</v>
+        <v>49.10462469091536</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>52.80901871840622</v>
+        <v>52.75203264949588</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>14.80798808229817</v>
+        <v>15.11877424967537</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>40.76327333399787</v>
+        <v>41.21946833326627</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>44.99843804646515</v>
+        <v>45.36790415434905</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>18.91065663404155</v>
+        <v>19.51916608389477</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>33.75387490618875</v>
+        <v>34.4997607003347</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>44.55380782323188</v>
+        <v>45.15779753883386</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>2.357051726508661</v>
+        <v>3.183656242770599</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>26.39546400036726</v>
+        <v>28.08735077137601</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>34.06745074961427</v>
+        <v>35.24906001259732</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>6.594098240996942</v>
+        <v>7.802032371123378</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>45.96694011423685</v>
+        <v>48.7115419501207</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>59.31038947903905</v>
+        <v>59.88569890220278</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>52.6303359454094</v>
+        <v>54.13115399445793</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>61.22117024914935</v>
+        <v>62.51771176256477</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>69.60602477886184</v>
+        <v>70.19845303503362</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>12.23624881167537</v>
+        <v>12.88246832788238</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>50.37316856978199</v>
+        <v>51.97545036447995</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>56.66971432706403</v>
+        <v>57.87699402148924</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>10.68165081710058</v>
+        <v>11.35590053580645</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>12.21017476274535</v>
+        <v>13.06063777101636</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>16.37218025039998</v>
+        <v>17.33313337715779</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>2.332384467369117</v>
+        <v>2.231045840804974</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>10.00764418762694</v>
+        <v>11.58486344569382</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>12.3945260400817</v>
+        <v>14.06935300852406</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>10.46196752861684</v>
+        <v>10.93856966839103</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.87506540963692</v>
+        <v>24.01879302352095</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>21.76630692498599</v>
+        <v>22.30782778344182</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>18.56055716841644</v>
+        <v>19.6696950763979</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>23.01652344474423</v>
+        <v>23.96594714111641</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>25.96061911043556</v>
+        <v>26.68041291092578</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>11.04094739172372</v>
+        <v>11.68891491004469</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>11.84107802620909</v>
+        <v>13.00340486471193</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>17.55165834818231</v>
+        <v>18.33408016182608</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>2.889703339402306</v>
+        <v>4.003655551397468</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>10.64904852160455</v>
+        <v>12.38232216987516</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>16.96632327082366</v>
+        <v>18.29341275556152</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-2.12904484722489</v>
+        <v>-1.537018470986141</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>0.2092066627857214</v>
+        <v>1.849584472839748</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>10.37421340538836</v>
+        <v>11.82070074965956</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-2.769104282484733</v>
+        <v>-2.016149986855716</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>6.627237237156734</v>
+        <v>8.039634755999288</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>21.53158300822195</v>
+        <v>23.02310309401365</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>10.02642117026689</v>
+        <v>11.30924827534686</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>17.07404486062414</v>
+        <v>18.43398894366452</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.71311895822861</v>
+        <v>29.79934034145685</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-0.4354593833875313</v>
+        <v>0.4592604266519444</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>10.28720575148039</v>
+        <v>11.75891953370769</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>18.06154082528049</v>
+        <v>19.72082732522284</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>15.42297655639384</v>
+        <v>15.69951641207477</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>24.16362717142946</v>
+        <v>24.91175872767642</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.90044928288396</v>
+        <v>31.39398011756597</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-0.3066990426400231</v>
+        <v>0.2204648023156714</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>10.868598987779</v>
+        <v>12.41703623876253</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>18.64877115462081</v>
+        <v>20.26412293591827</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>6.100026242915614</v>
+        <v>6.55184082923579</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>27.22843318890994</v>
+        <v>28.99955756198307</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>42.02397961775409</v>
+        <v>42.60091925524932</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.28902137896627</v>
+        <v>30.98055154725144</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>38.73441197075424</v>
+        <v>40.52386936330675</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>49.67565234648331</v>
+        <v>50.76591838191763</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>13.72045284999757</v>
+        <v>15.24931969634214</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.33013393679783</v>
+        <v>31.32682383075845</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>34.74299299089046</v>
+        <v>36.24377870549779</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>3.647285027227149</v>
+        <v>3.293729551554669</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>2.242742805655109</v>
+        <v>3.056545432858648</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>4.902473716877779</v>
+        <v>5.337660966105148</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>0.1866605736981413</v>
+        <v>0.1887374232381518</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>0.545016898316085</v>
+        <v>2.12850104573894</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>1.990287899607935</v>
+        <v>3.750184695440453</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.925300141438051</v>
+        <v>7.115824615611224</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>8.291992365506573</v>
+        <v>8.812606025699733</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>7.194676815056788</v>
+        <v>8.386479006882432</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>3.894222629189223</v>
+        <v>4.715881097191772</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>2.717874788213312</v>
+        <v>3.647194390186669</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>5.972291555752683</v>
+        <v>6.793115243646984</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>4.499377114825151</v>
+        <v>5.064051866256612</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>1.167091774571507</v>
+        <v>2.35442223244376</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>3.476507350497229</v>
+        <v>4.904056526497502</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>0.8436929974109191</v>
+        <v>1.154024400729373</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>4.323609962398809</v>
+        <v>5.875758716483379</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>5.27945092422976</v>
+        <v>6.289255093146345</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.1013454408179726</v>
+        <v>0.3281420049669848</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-2.868696126553221</v>
+        <v>-1.96001210623767</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>2.139986420396394</v>
+        <v>3.309677592311772</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>0.0585123442875144</v>
+        <v>0.4017564231226594</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>0.8778384077522965</v>
+        <v>1.840579585405745</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>4.562549143116595</v>
+        <v>5.531795093438848</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>0.9661893362642893</v>
+        <v>2.125816908528439</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>4.319597242447291</v>
+        <v>5.155366967908162</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.844323953281975</v>
+        <v>5.747087575227411</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-2.033657271257741</v>
+        <v>-1.889341026332851</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>0.8529688519376109</v>
+        <v>2.583938999041401</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>1.954763317910981</v>
+        <v>3.554790665116883</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>16.29203464141888</v>
+        <v>16.29798125630896</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>19.81294708471126</v>
+        <v>20.44614177262647</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>24.31041540971492</v>
+        <v>24.5773337703405</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>2.195655435946321</v>
+        <v>2.485864672820504</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>7.79404382951849</v>
+        <v>9.22403815493475</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>12.66381334628631</v>
+        <v>13.84849471510757</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>10.40837204471695</v>
+        <v>11.06787670728313</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>20.84722363827349</v>
+        <v>22.67731135757562</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.8511659474387</v>
+        <v>29.61063623255639</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>22.7181013045953</v>
+        <v>24.57759419129081</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>26.20533980031789</v>
+        <v>27.31717117382331</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>32.69663764663477</v>
+        <v>33.74172034317752</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>14.20702728683858</v>
+        <v>16.46604641227453</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>20.58453380913383</v>
+        <v>21.89496797211434</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>24.84382532753273</v>
+        <v>26.05962552574908</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>16.7744646501168</v>
+        <v>16.2079802209644</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.00188416836947</v>
+        <v>28.00466346755968</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>34.22143380049473</v>
+        <v>33.69886738605257</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>3.881786399966828</v>
+        <v>4.149659804531861</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>18.61693960642678</v>
+        <v>18.95698952579351</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.07434859627339</v>
+        <v>24.81671694183251</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>11.96654900589371</v>
+        <v>11.91396744279827</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.20895913922485</v>
+        <v>40.55421392312999</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>41.9388980556455</v>
+        <v>41.9407035411365</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>34.46959494328959</v>
+        <v>36.16457910108782</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>39.43668248918792</v>
+        <v>40.76154675610341</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>41.84745491981051</v>
+        <v>42.72563868701494</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>24.79178114738524</v>
+        <v>25.9943890475305</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>37.83664387095993</v>
+        <v>40.84041456537114</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>44.12915287523467</v>
+        <v>45.71922946720331</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>11.56423302816094</v>
+        <v>11.91373364801491</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>21.61102897059119</v>
+        <v>22.87702513064648</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>27.54103033819936</v>
+        <v>28.57841295309155</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-0.8948626038916956</v>
+        <v>-0.3928965669379885</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>4.546430908922641</v>
+        <v>6.163641143055678</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>10.54195895661291</v>
+        <v>11.86956337328808</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>2.987548007908675</v>
+        <v>3.681240638035032</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>19.31062194499149</v>
+        <v>20.83648113265948</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.29745071646381</v>
+        <v>27.50007127321595</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>20.76356431809079</v>
+        <v>23.15089772447725</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>27.61189608608367</v>
+        <v>29.26597418724582</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>33.20130542788932</v>
+        <v>34.55686900170481</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>10.94254534274115</v>
+        <v>12.57622618208381</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>24.10257049499069</v>
+        <v>26.40678135528555</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.64703055239547</v>
+        <v>31.60686556621786</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>18.66582396049121</v>
+        <v>18.39444092134433</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.89584293249792</v>
+        <v>31.12006242599491</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>40.84813664525447</v>
+        <v>41.66448343815416</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>2.191995844393144</v>
+        <v>2.897777974795783</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>14.1777448700532</v>
+        <v>16.33150828811345</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>20.79847992680349</v>
+        <v>22.65003990463043</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>8.016770845907899</v>
+        <v>8.550006594995896</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>34.9980355890372</v>
+        <v>36.6805978087451</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>46.95936096811701</v>
+        <v>48.48617520782903</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>42.71516575048022</v>
+        <v>45.01029804083612</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>51.30763331016011</v>
+        <v>53.21056255543618</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>55.05912332688219</v>
+        <v>56.66965512991782</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>20.85619914962972</v>
+        <v>22.89410780699603</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>40.4895561706673</v>
+        <v>43.4057536401813</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>46.43773999520979</v>
+        <v>48.81367343230092</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>14.4073502218323</v>
+        <v>14.70367362369282</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>30.07547038706597</v>
+        <v>28.44040568129357</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.32821876946554</v>
+        <v>36.40624353763799</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>7.09536060711164</v>
+        <v>7.715732773190403</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>30.74778446102463</v>
+        <v>31.76869972253433</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>34.92057833184494</v>
+        <v>35.18415695085815</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>13.22245461540657</v>
+        <v>13.65830661928182</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>53.53316005430344</v>
+        <v>54.28606924992106</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>58.68773727915514</v>
+        <v>58.1411139123415</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>48.74570715831046</v>
+        <v>49.21472390366818</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>50.91370704977835</v>
+        <v>51.96774245378936</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>56.2612332260038</v>
+        <v>56.83499260462615</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>13.85864687436323</v>
+        <v>14.94405535762219</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>37.57008208626353</v>
+        <v>39.33929235446864</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>49.03906290843125</v>
+        <v>48.64834507274495</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>9.858233004201498</v>
+        <v>10.89005127932261</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>27.65730204920541</v>
+        <v>27.7933710865274</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.67091169315267</v>
+        <v>33.609494835797</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>2.9612047952612</v>
+        <v>4.665948033983025</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>17.70487842931263</v>
+        <v>19.3958315965577</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.5236075537505</v>
+        <v>26.97105100409937</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>3.192166596714568</v>
+        <v>4.60153288843096</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>33.71813376429713</v>
+        <v>35.12366725232638</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.50567402609689</v>
+        <v>45.64264252763387</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.60303133458081</v>
+        <v>37.90834223393544</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>44.40895747479919</v>
+        <v>45.67049850749659</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>50.4523449568411</v>
+        <v>50.96715682763595</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>6.466953402861606</v>
+        <v>7.694094655114178</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>35.10985854431705</v>
+        <v>36.84376772696679</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>43.15365303209552</v>
+        <v>44.32990776580851</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>10.04075144660952</v>
+        <v>10.52017611836632</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.97242547863065</v>
+        <v>28.84936412424752</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>39.29072062976981</v>
+        <v>38.74498530148115</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-0.2424572841088413</v>
+        <v>1.518100943896595</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>22.1187773481174</v>
+        <v>23.87688248067739</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>30.44612105270883</v>
+        <v>31.86438775735268</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>2.317449691346226</v>
+        <v>3.464400160092524</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>38.38069509147014</v>
+        <v>40.07630813900877</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>56.94342805737149</v>
+        <v>57.62150697183391</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>46.01752308521016</v>
+        <v>47.18445420452906</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>56.57724384670541</v>
+        <v>57.61893639055965</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>69.51573326419459</v>
+        <v>70.40820062080097</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>3.919287398675671</v>
+        <v>5.705034205101782</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>43.28939894469777</v>
+        <v>45.23769424742822</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>53.97375200752585</v>
+        <v>55.36479344314547</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>12.5720385895942</v>
+        <v>11.49521239914071</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>23.27664529045677</v>
+        <v>23.75905656605457</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>34.59249885175339</v>
+        <v>34.62234763041058</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>6.42577861577891</v>
+        <v>6.820941377222823</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>37.77831237821087</v>
+        <v>38.61973558422568</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>40.66920203337292</v>
+        <v>42.89762061622958</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>11.32703986747501</v>
+        <v>9.898300219111956</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>54.67033748577811</v>
+        <v>58.78578839006263</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>59.04676037608644</v>
+        <v>62.5286556599093</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>41.96803453133688</v>
+        <v>44.47032734127044</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>42.8671272968259</v>
+        <v>45.24509290976995</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>45.06361452954218</v>
+        <v>46.69779844240803</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>19.12184822993307</v>
+        <v>18.85826981409562</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>32.58761309593761</v>
+        <v>33.90509147827012</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>53.79572072000905</v>
+        <v>56.88214877585456</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>14.84523611655093</v>
+        <v>15.81979976594248</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.47131394301609</v>
+        <v>31.14376952250925</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>34.46117856924004</v>
+        <v>35.4967781219353</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1.528618948717938</v>
+        <v>2.880762226777776</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>21.92143375141612</v>
+        <v>23.16885544935264</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>24.93967054160365</v>
+        <v>27.05245200105111</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1.002013883998227</v>
+        <v>1.842644790664959</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>37.01514620343119</v>
+        <v>38.54752586430173</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>44.66113165898006</v>
+        <v>46.19844322550435</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>35.10229164179685</v>
+        <v>37.09938897204297</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>45.59410716085124</v>
+        <v>47.19026563810069</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>52.7625449941654</v>
+        <v>53.55875485078929</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>9.020057714728324</v>
+        <v>11.74393322098784</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>35.72797240639559</v>
+        <v>37.62501334567615</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>44.79679360055943</v>
+        <v>47.15447761899478</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>14.05298457905678</v>
+        <v>15.43026523066677</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.70778590901205</v>
+        <v>32.2729808180321</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.28887438197955</v>
+        <v>39.55019948369329</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>2.063317314213013</v>
+        <v>3.436844448191316</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>26.11547078930983</v>
+        <v>27.6811834413986</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>31.49860351688413</v>
+        <v>33.7546400665474</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>3.040008293840497</v>
+        <v>3.628864627094739</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>45.00241935126517</v>
+        <v>46.36499237391072</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>57.2970026131818</v>
+        <v>59.39952314031727</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>50.58915999757852</v>
+        <v>53.15453954055791</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>58.8292718192218</v>
+        <v>60.78441543120701</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>66.87001188709672</v>
+        <v>70.10860643280706</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>7.483036774746168</v>
+        <v>8.776911812313127</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>42.74650912507875</v>
+        <v>44.6716287114818</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>55.80513681898026</v>
+        <v>56.44690182850223</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>19.76415073969045</v>
+        <v>20.32087768186388</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.98090291752892</v>
+        <v>26.47474443649989</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.96468446677412</v>
+        <v>37.22769095837629</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>16.95165720986594</v>
+        <v>13.66627093698467</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>48.04500616787332</v>
+        <v>49.53363238184149</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>51.05861363734842</v>
+        <v>50.22348985335562</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>18.22944992625934</v>
+        <v>16.20735959607764</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>53.03380973756485</v>
+        <v>57.84865719798371</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>56.85051857714128</v>
+        <v>59.11077370822741</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>40.86258305661242</v>
+        <v>42.72547278385813</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>43.19272525800271</v>
+        <v>44.78954541331409</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>48.40397079612838</v>
+        <v>47.54059319361831</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>31.1252048661479</v>
+        <v>31.0445815254408</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>27.6880544065804</v>
+        <v>29.02457612355963</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>46.59769733518645</v>
+        <v>48.85774891495311</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>22.515010913396</v>
+        <v>23.05654220406376</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>33.25390192448067</v>
+        <v>32.70632288099647</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>38.96304302969389</v>
+        <v>38.72215309464681</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>34.00835451013207</v>
+        <v>34.44096828178925</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>44.65216359897885</v>
+        <v>45.12085892182935</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>50.55914329733296</v>
+        <v>51.17998611251456</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>12.18214244198005</v>
+        <v>12.24751390430467</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>39.21869495970009</v>
+        <v>40.21890924135249</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>50.05670035015586</v>
+        <v>50.83887546659862</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>37.6467163176888</v>
+        <v>38.79264697843053</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>48.52922429907496</v>
+        <v>49.06652014296178</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>52.77552568234422</v>
+        <v>51.85458807669944</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>21.01650037378763</v>
+        <v>22.04761517694955</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>37.25349075215213</v>
+        <v>38.00635090684209</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>46.2676389038342</v>
+        <v>48.18471296799468</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>21.96853842039009</v>
+        <v>21.38767109237327</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>33.77008083775029</v>
+        <v>34.20088476560424</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>39.73597459979786</v>
+        <v>39.82932123911196</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>34.54072231425221</v>
+        <v>34.70670932184586</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>48.70946885873867</v>
+        <v>49.79246708644248</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>50.51871968157333</v>
+        <v>51.34884426573461</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>13.52490073787852</v>
+        <v>12.47503626895981</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>48.12327140609002</v>
+        <v>49.68252347676089</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>59.46145341626453</v>
+        <v>60.67652462653119</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>55.18342094465923</v>
+        <v>56.03519450056804</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>62.29118351307288</v>
+        <v>63.80309961332786</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>69.36383675001136</v>
+        <v>71.09403520297026</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>21.10027286004554</v>
+        <v>22.0521378601204</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>42.51514916016791</v>
+        <v>44.91646164549291</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>58.35099449228103</v>
+        <v>59.49865292250803</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>8.253385323949555</v>
+        <v>9.361928809585002</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>23.64186877793329</v>
+        <v>23.75380158091624</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>33.59692466001754</v>
+        <v>34.04484691639754</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>1.218839272271975</v>
+        <v>2.063012588930718</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>23.56701894351324</v>
+        <v>25.06025889769686</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>24.89366301953436</v>
+        <v>25.85831964295098</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>3.710373474192231</v>
+        <v>4.916798460348751</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>44.4241569822618</v>
+        <v>45.25290557129455</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>49.55769016871437</v>
+        <v>49.81491981646804</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>46.7378562923098</v>
+        <v>47.40798927029579</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>44.57611615889725</v>
+        <v>45.41672474231441</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>48.20429415385645</v>
+        <v>48.61228376667198</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>3.073681707386346</v>
+        <v>3.57141154912372</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>32.98271627631335</v>
+        <v>35.01831933686734</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>40.27593841329522</v>
+        <v>41.76836857563217</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>8.128358555863283</v>
+        <v>9.113378727481006</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>26.77953450261742</v>
+        <v>27.32436547350395</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.32160443832537</v>
+        <v>32.0884108505247</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>1.562313990933308</v>
+        <v>2.607974052368693</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>19.33979154371715</v>
+        <v>20.9161332489847</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>22.04200588362973</v>
+        <v>23.66940266312001</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>1.096561454762313</v>
+        <v>2.109572897147558</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>33.50856733024196</v>
+        <v>34.18684753038731</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>42.1719299535108</v>
+        <v>43.36167836520756</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>36.69891399614663</v>
+        <v>37.74137495680144</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>42.56022673181133</v>
+        <v>43.95705272088081</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>48.18741635019686</v>
+        <v>49.1637060546699</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>3.227912913560054</v>
+        <v>4.489439500533233</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>34.43979919155251</v>
+        <v>36.24613675324652</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.68245347182192</v>
+        <v>41.34796291032792</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>8.974627902529967</v>
+        <v>9.883490937492748</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>27.67334879501937</v>
+        <v>28.95691177589362</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>37.01451733806441</v>
+        <v>38.23214555065231</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-0.415109791599825</v>
+        <v>0.8502514547472089</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>21.98004532040295</v>
+        <v>24.25682637376016</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>26.25228898764213</v>
+        <v>28.21453594168583</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>0.7754122309173219</v>
+        <v>2.082261016537327</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>38.53108107282697</v>
+        <v>40.22140140672354</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>53.15688593921237</v>
+        <v>54.88397530090042</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>48.45388038508194</v>
+        <v>50.5533121511598</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>58.6630614919965</v>
+        <v>60.29583843537385</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>65.72675095301777</v>
+        <v>67.04988658634153</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>2.438075996147763</v>
+        <v>3.787898024861551</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>42.25550969838052</v>
+        <v>44.65152631104329</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>51.55439308462404</v>
+        <v>53.43915478263453</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>9.590872917639697</v>
+        <v>10.20853789113067</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>11.1187418443971</v>
+        <v>12.23857665009751</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>18.17809314044132</v>
+        <v>18.8244271365663</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>0.5638402877258386</v>
+        <v>0.4791809307759607</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>11.45342408606058</v>
+        <v>13.1112762575643</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>14.2339788332992</v>
+        <v>15.6980451703294</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>9.639189368915769</v>
+        <v>9.71933089371143</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>21.62869566092155</v>
+        <v>22.81652609279381</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.1190904516887</v>
+        <v>26.68359610356371</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.00208761330274</v>
+        <v>19.29634193792931</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>21.16670403471153</v>
+        <v>22.52477151988412</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>23.75600791309301</v>
+        <v>24.94428682946323</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>7.86906895307277</v>
+        <v>8.970046465997594</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>8.974103415346541</v>
+        <v>10.99200294775975</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>16.04344656060227</v>
+        <v>18.16371488177999</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>5.519599967874687</v>
+        <v>7.238347308024256</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>19.46174090259986</v>
+        <v>20.65189268006943</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>26.46618780783761</v>
+        <v>27.41580607605175</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-0.1734020190856036</v>
+        <v>1.127713636550769</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>11.34095176650897</v>
+        <v>13.07616172806378</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>19.17956053147201</v>
+        <v>20.90119242986734</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-0.5431972781856373</v>
+        <v>0.7601546504383059</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>21.25318342745034</v>
+        <v>22.01767452127273</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>33.58957661001176</v>
+        <v>35.34307419655021</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>25.34013536287701</v>
+        <v>27.29349422453785</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>32.29800223739282</v>
+        <v>33.83963196555919</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>40.83675134531256</v>
+        <v>42.15584372152553</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-0.819471736599688</v>
+        <v>0.8224066746269827</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>22.32945544433824</v>
+        <v>24.75211017515139</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>31.98380879652983</v>
+        <v>34.00438591967777</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>9.546699749917646</v>
+        <v>11.32517825399886</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>23.84907779246174</v>
+        <v>25.44991080818731</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>32.23604765520295</v>
+        <v>33.46027737248421</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-0.1883335400831854</v>
+        <v>1.498252390233684</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>15.32943015526755</v>
+        <v>18.18893763702795</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>22.74393099937822</v>
+        <v>25.0149852186937</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>3.927583759414709</v>
+        <v>5.417663708757942</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>31.75086699829489</v>
+        <v>33.28299820485687</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>43.91263943916866</v>
+        <v>45.31384705500973</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>36.99735093832754</v>
+        <v>39.7513881902445</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>45.42621039409735</v>
+        <v>47.40709296168282</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>49.45358007010528</v>
+        <v>51.16788849896319</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>3.973850218518873</v>
+        <v>5.33850722562169</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.10384229737369</v>
+        <v>34.5229167651872</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>45.05694162005292</v>
+        <v>47.49184890329283</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>11.16826834233518</v>
+        <v>11.57202778300399</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>14.43056179975087</v>
+        <v>15.1822076845982</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>21.33874536060181</v>
+        <v>22.71125534774783</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>3.304880228128006</v>
+        <v>4.071417118269711</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>21.31016337540539</v>
+        <v>20.7008330838607</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>21.39934837506168</v>
+        <v>21.79474000136889</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>9.732434941002747</v>
+        <v>11.26303759441838</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.77830523392895</v>
+        <v>33.94837477219092</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>33.61956975673612</v>
+        <v>34.20248507846247</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>26.87948072305885</v>
+        <v>28.4452507572359</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.36745363729493</v>
+        <v>30.44816374934825</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>37.37911181926252</v>
+        <v>37.85572068376081</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>12.96013338837582</v>
+        <v>13.26006631744558</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>14.29654469638999</v>
+        <v>16.95559141301018</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>27.02993148893054</v>
+        <v>28.0969890797884</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>8.349057187284771</v>
+        <v>9.048863668098335</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>20.22195822363687</v>
+        <v>19.63854756678519</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>30.93465550030447</v>
+        <v>32.63522251392422</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>6.130224785552311</v>
+        <v>5.881424036554737</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>13.33144371376542</v>
+        <v>11.43521812098404</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.02233708194789</v>
+        <v>33.37134304429765</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>1.47852175459666</v>
+        <v>3.163972632314142</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>21.26383449034957</v>
+        <v>21.07214161875559</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>38.3737171697527</v>
+        <v>40.86896228212841</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>21.10814287109279</v>
+        <v>22.6407248620384</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>35.0117795278646</v>
+        <v>35.85926496025068</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>46.1108972908416</v>
+        <v>47.26072271629481</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>1.010525030802889</v>
+        <v>2.857472041059196</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>22.38548262539474</v>
+        <v>23.85310752644028</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>33.28477779790586</v>
+        <v>35.89747646238975</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>8.932340178022663</v>
+        <v>9.458857419122396</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>19.93480550340292</v>
+        <v>21.01968567741705</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.66227068938974</v>
+        <v>30.32726577497157</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>3.795849818667424</v>
+        <v>2.839994171144721</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>15.93558945593958</v>
+        <v>15.62404835556369</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>23.5805965905871</v>
+        <v>26.31545899006682</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>1.675607530494386</v>
+        <v>3.45648808014823</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.11141775115276</v>
+        <v>29.15371411804561</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>42.71171414670192</v>
+        <v>43.85508622926336</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>39.66108659416091</v>
+        <v>41.88499053163789</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>45.10646034650506</v>
+        <v>46.53614632523477</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>55.21368876789519</v>
+        <v>56.7853387325122</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>0.169259227742856</v>
+        <v>1.64582606846648</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>22.68302336109594</v>
+        <v>24.60261240871085</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>42.84939132211778</v>
+        <v>43.76388573925398</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>17.59053482900847</v>
+        <v>19.34621831810601</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>26.52125070970799</v>
+        <v>27.02572092242103</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>36.75650527447621</v>
+        <v>36.36665498708209</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>7.282350491108691</v>
+        <v>7.772440205998937</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>39.18654773994157</v>
+        <v>39.95348120896231</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>43.60082667294409</v>
+        <v>43.68988048080513</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>16.38438039431306</v>
+        <v>16.66086064850602</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>61.32362160872663</v>
+        <v>61.7233023014997</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>63.01185453589598</v>
+        <v>62.46852062336035</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>41.72929715039734</v>
+        <v>44.1502692541984</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>46.93083931411766</v>
+        <v>47.30406972066908</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>50.63819841996707</v>
+        <v>51.3647678582834</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>30.03871664560342</v>
+        <v>29.06065901360127</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>34.65353762127798</v>
+        <v>34.81474748480161</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>59.42414791067553</v>
+        <v>62.07162185248195</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>21.86441691516957</v>
+        <v>22.45198991446291</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>33.6873998699012</v>
+        <v>33.83882294864903</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>37.99813839243035</v>
+        <v>37.88745113858538</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>6.681722441083632</v>
+        <v>7.367617851036577</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>25.07126236853847</v>
+        <v>26.05189777141861</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>30.4547879629625</v>
+        <v>31.41312796071143</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>8.32618214982022</v>
+        <v>9.184314926086358</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>41.16172613979244</v>
+        <v>42.09696405886793</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>49.49863633286618</v>
+        <v>50.30308508161198</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>41.02351210961764</v>
+        <v>42.19776245422254</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>46.97458164285126</v>
+        <v>48.13826073050286</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>53.85673942984594</v>
+        <v>54.596917864534</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>18.90337948687451</v>
+        <v>19.68071663641556</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>40.28329917100282</v>
+        <v>41.24613250225625</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>47.41425153510571</v>
+        <v>49.09771403649462</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>20.96549732955969</v>
+        <v>21.35310133115214</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>33.13080082067603</v>
+        <v>34.00434598585466</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>40.093305720193</v>
+        <v>40.23811136758519</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>4.565513816751025</v>
+        <v>5.437018240865754</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>26.99414902123528</v>
+        <v>28.49427799600357</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>32.90840846313158</v>
+        <v>34.58912238854072</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>7.076843839103791</v>
+        <v>8.176780639269079</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>48.18200814819622</v>
+        <v>49.47615806211896</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>60.84381701052115</v>
+        <v>61.208617497335</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>51.92084087816491</v>
+        <v>53.68688948935849</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>61.6443060100049</v>
+        <v>62.36741552164716</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>67.43728823361351</v>
+        <v>69.22015067505038</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>17.98448487458899</v>
+        <v>19.53133244766077</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>46.06014331139809</v>
+        <v>47.64596581124363</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>59.96712917757314</v>
+        <v>61.41694539793892</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>6.419500458894998</v>
+        <v>7.671919391691258</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>20.62830446757154</v>
+        <v>21.06692923906864</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>30.10286884723326</v>
+        <v>30.89685029848267</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>1.517790769537367</v>
+        <v>2.526066935652093</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>23.14175818265697</v>
+        <v>24.68177895286104</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>24.11339463950462</v>
+        <v>25.19483093476111</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>3.067413509882851</v>
+        <v>4.503106203236097</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>40.79457086893297</v>
+        <v>41.35664137051028</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>46.59456568468718</v>
+        <v>47.22314872586009</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>41.73318099848467</v>
+        <v>42.8104827719897</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>46.07797467077859</v>
+        <v>47.69203725610303</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>46.45431995891678</v>
+        <v>47.755802868396</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>1.967302804243886</v>
+        <v>2.856798535286178</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>31.63888735383329</v>
+        <v>33.28099967126451</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>37.488370034711</v>
+        <v>38.29100564060672</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>8.778538606502622</v>
+        <v>10.18527463160028</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>27.64371653331464</v>
+        <v>28.3503994379197</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>31.37829857075821</v>
+        <v>32.10368344457522</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>3.236980174611165</v>
+        <v>4.864422331328729</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>20.01847460959108</v>
+        <v>21.31362483554347</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>24.19218052146081</v>
+        <v>26.19123416565085</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>3.151238206375712</v>
+        <v>5.264653906501092</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>35.77802224642314</v>
+        <v>37.29839590908102</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>44.9688987956346</v>
+        <v>47.82099769892865</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>38.50660978298265</v>
+        <v>40.04374591087775</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>46.59503953685124</v>
+        <v>48.30380098395341</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>50.19949716473663</v>
+        <v>51.5661548367252</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>4.343541088936263</v>
+        <v>6.474772096130856</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>36.45719260892635</v>
+        <v>38.38607082712463</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>42.84555488381774</v>
+        <v>44.43424890110124</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>8.670877368756422</v>
+        <v>9.561411193360616</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>27.38201089983508</v>
+        <v>28.43467781338806</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>35.48088478323263</v>
+        <v>36.48671287498028</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>0.09546551261602687</v>
+        <v>1.341910205260749</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>22.83245771351517</v>
+        <v>24.9490568497197</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>25.8618614070251</v>
+        <v>27.4159909711783</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>0.6131469420423201</v>
+        <v>2.142000173257866</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>38.11976520584415</v>
+        <v>39.42920018302814</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>50.83637447724598</v>
+        <v>52.04964841876872</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>46.45411931929694</v>
+        <v>48.30066882419465</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>58.0601675648214</v>
+        <v>59.47910887919973</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>64.26881210226981</v>
+        <v>65.66271004567302</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>1.841455408677898</v>
+        <v>3.561762165268341</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>41.07075655368827</v>
+        <v>43.49413692409311</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>51.24735365170144</v>
+        <v>52.52961437379979</v>
       </c>
     </row>
   </sheetData>
